--- a/Doc/diagrama de BD.xlsx
+++ b/Doc/diagrama de BD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88A8B2E-DA8C-48AA-B91B-A41CD87F7C8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="9800"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>historial_veterinario</t>
   </si>
@@ -179,19 +185,29 @@
   </si>
   <si>
     <t>proposito</t>
+  </si>
+  <si>
+    <t>php artisan make:model Usuarios -m
+php artisan make:model Usuarios_fincas -m
+php artisan make:model Roles -m
+php artisan make:model Finca -m
+php artisan make:model Corral -m
+php artisan make:model Departamentos -m
+php artisan make:model Pueblos -m
+php artisan make:model Bovino -m
+php artisan make:model Razas-m
+php artisan make:model Bovinos_genealogico -m
+php artisan make:model Propositos -m
+php artisan make:model Historial_veterinario -m
+php artisan make:model Seguimiento_crecimiento -m
+php artisan make:model Seguimiento_lechero -m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,353 +247,16 @@
       <name val="Arial Bold"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -674,253 +353,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -942,69 +379,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
-    <cellStyle name="20% - Énfasis6" xfId="3" builtinId="50"/>
-    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
-    <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46"/>
-    <cellStyle name="Énfasis5" xfId="6" builtinId="45"/>
-    <cellStyle name="40% - Énfasis4" xfId="7" builtinId="43"/>
-    <cellStyle name="Énfasis4" xfId="8" builtinId="41"/>
-    <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39"/>
-    <cellStyle name="Celda vinculada" xfId="10" builtinId="24"/>
-    <cellStyle name="20% - Énfasis3" xfId="11" builtinId="38"/>
-    <cellStyle name="40% - Énfasis2" xfId="12" builtinId="35"/>
-    <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32"/>
-    <cellStyle name="20% - Énfasis1" xfId="14" builtinId="30"/>
-    <cellStyle name="Moneda [0]" xfId="15" builtinId="7"/>
-    <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44"/>
-    <cellStyle name="Énfasis1" xfId="17" builtinId="29"/>
-    <cellStyle name="Incorrecto" xfId="18" builtinId="27"/>
-    <cellStyle name="Correcto" xfId="19" builtinId="26"/>
-    <cellStyle name="Énfasis6" xfId="20" builtinId="49"/>
-    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="60% - Énfasis2" xfId="23" builtinId="36"/>
-    <cellStyle name="Énfasis2" xfId="24" builtinId="33"/>
-    <cellStyle name="Moneda" xfId="25" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="26" builtinId="5"/>
-    <cellStyle name="Texto explicativo" xfId="27" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="28" builtinId="16"/>
-    <cellStyle name="Celda de comprobación" xfId="29" builtinId="23"/>
-    <cellStyle name="Cálculo" xfId="30" builtinId="22"/>
-    <cellStyle name="Título 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Título 3" xfId="32" builtinId="18"/>
-    <cellStyle name="Título 2" xfId="33" builtinId="17"/>
-    <cellStyle name="20% - Énfasis2" xfId="34" builtinId="34"/>
-    <cellStyle name="Neutro" xfId="35" builtinId="28"/>
-    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
-    <cellStyle name="Título" xfId="37" builtinId="15"/>
-    <cellStyle name="Salida" xfId="38" builtinId="21"/>
-    <cellStyle name="60% - Énfasis5" xfId="39" builtinId="48"/>
-    <cellStyle name="Coma" xfId="40" builtinId="3"/>
-    <cellStyle name="Entrada" xfId="41" builtinId="20"/>
-    <cellStyle name="Nota" xfId="42" builtinId="10"/>
-    <cellStyle name="20% - Énfasis4" xfId="43" builtinId="42"/>
-    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9"/>
-    <cellStyle name="Coma [0]" xfId="45" builtinId="6"/>
-    <cellStyle name="Hipervínculo" xfId="46" builtinId="8"/>
-    <cellStyle name="Énfasis3" xfId="47" builtinId="37"/>
-    <cellStyle name="Texto de advertencia" xfId="48" builtinId="11"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1018,9 +414,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>119380</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector recto de flecha 1"/>
+        <xdr:cNvPr id="2" name="Conector recto de flecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1065,9 +467,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector recto 3"/>
+        <xdr:cNvPr id="4" name="Conector recto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1109,9 +517,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto 5"/>
+        <xdr:cNvPr id="6" name="Conector recto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1153,9 +567,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector recto de flecha 6"/>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1200,9 +620,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector recto de flecha 7"/>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1247,9 +673,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Conector recto de flecha 8"/>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1294,9 +726,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto de flecha 9"/>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1341,9 +779,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1388,9 +832,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto de flecha 11"/>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1435,9 +885,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector recto de flecha 12"/>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1482,9 +938,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto de flecha 13"/>
+        <xdr:cNvPr id="14" name="Conector recto de flecha 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1529,9 +991,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
+        <xdr:cNvPr id="15" name="Conector recto de flecha 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1576,9 +1044,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto de flecha 15"/>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1623,9 +1097,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector recto de flecha 16"/>
+        <xdr:cNvPr id="17" name="Conector recto de flecha 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1852,75 +1332,74 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B5:N52"/>
+  <dimension ref="A5:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.51785714285714" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.8035714285714" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.8035714285714" customWidth="1"/>
-    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.6071428571429" customWidth="1"/>
-    <col min="8" max="8" width="17.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="11.2321428571429" customWidth="1"/>
-    <col min="10" max="10" width="21.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="15.1785714285714" customWidth="1"/>
-    <col min="12" max="12" width="29.0714285714286" customWidth="1"/>
-    <col min="13" max="13" width="7.57142857142857" customWidth="1"/>
-    <col min="14" max="14" width="27.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="20.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="29.08984375" customWidth="1"/>
+    <col min="13" max="13" width="7.54296875" customWidth="1"/>
+    <col min="14" max="14" width="27.81640625" customWidth="1"/>
+    <col min="16" max="16" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" customHeight="1" spans="12:12">
+    <row r="5" spans="2:12" ht="15.75" customHeight="1">
       <c r="L5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="12:12">
+    <row r="6" spans="2:12" ht="15.75" customHeight="1">
       <c r="L6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="12:12">
+    <row r="7" spans="2:12" ht="15.75" customHeight="1">
       <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="12:12">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1">
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="12:12">
+    <row r="9" spans="2:12" ht="15.75" customHeight="1">
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="12:12">
+    <row r="10" spans="2:12" ht="15.75" customHeight="1">
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="12:12">
+    <row r="11" spans="2:12" ht="15.75" customHeight="1">
       <c r="L11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" ht="13">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1942,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" ht="12.5">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" ht="12.5">
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1984,7 +1463,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:12" ht="12.5">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2003,7 +1482,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" ht="13">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2025,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" ht="12.5">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -2047,7 +1526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" ht="12.5">
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" ht="12.5">
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
@@ -2080,7 +1559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" ht="12.5">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
@@ -2091,7 +1570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" ht="13">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2103,7 +1582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" ht="12.5">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2115,7 +1594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" ht="12.5">
       <c r="B23" s="4"/>
       <c r="E23" s="7"/>
       <c r="J23" s="14" t="s">
@@ -2125,14 +1604,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="5:12">
+    <row r="24" spans="2:12" ht="12.5">
       <c r="E24" s="9"/>
       <c r="J24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:12" ht="13">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,7 +1628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" ht="13">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2167,7 +1646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" ht="12.5">
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
@@ -2185,7 +1664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" ht="12.5">
       <c r="B28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>12</v>
@@ -2200,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:12">
+    <row r="29" spans="2:12" ht="12.5">
       <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
@@ -2214,7 +1693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="4:12">
+    <row r="30" spans="2:12" ht="13">
       <c r="D30" s="4"/>
       <c r="F30" s="3" t="s">
         <v>16</v>
@@ -2227,7 +1706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="6:12">
+    <row r="31" spans="2:12" ht="13">
       <c r="F31" s="4"/>
       <c r="H31" s="11" t="s">
         <v>49</v>
@@ -2240,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="8:12">
+    <row r="32" spans="2:12" ht="12.5">
       <c r="H32" s="12"/>
       <c r="J32" s="2" t="s">
         <v>2</v>
@@ -2250,14 +1729,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="10:12">
+    <row r="33" spans="6:14" ht="12.5">
       <c r="J33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="6:11">
+    <row r="34" spans="6:14" ht="13">
       <c r="F34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2266,51 +1745,54 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="6:11">
+    <row r="35" spans="6:14" ht="12.5">
       <c r="F35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:14" ht="12.5">
       <c r="F36" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:14" ht="12.5">
       <c r="F37" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:14" ht="12.5">
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="6:14" ht="12.5">
       <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:14" ht="12.5">
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="14:14">
+    <row r="41" spans="6:14" ht="13">
       <c r="N41" s="20"/>
     </row>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
+    <row r="42" spans="6:14" ht="12.5"/>
+    <row r="43" spans="6:14" ht="12.5"/>
+    <row r="46" spans="6:14" ht="12.5"/>
+    <row r="47" spans="6:14" ht="12.5"/>
+    <row r="48" spans="6:14" ht="12.5"/>
+    <row r="49" spans="1:1" ht="409.5">
+      <c r="A49" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="12.5"/>
+    <row r="51" spans="1:1" ht="12.5"/>
+    <row r="52" spans="1:1" ht="12.5"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/diagrama de BD.xlsx
+++ b/Doc/diagrama de BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88A8B2E-DA8C-48AA-B91B-A41CD87F7C8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F2189-FE25-4BF3-9081-4D0750EC12EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 php artisan make:model Departamentos -m
 php artisan make:model Pueblos -m
 php artisan make:model Bovino -m
-php artisan make:model Razas-m
+php artisan make:model Razas -m
 php artisan make:model Bovinos_genealogico -m
 php artisan make:model Propositos -m
 php artisan make:model Historial_veterinario -m
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -247,13 +247,36 @@
       <name val="Arial Bold"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -357,31 +380,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,13 +691,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>107820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>125095</xdr:rowOff>
+      <xdr:rowOff>118615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -686,8 +712,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6261735" y="3114675"/>
-          <a:ext cx="821055" cy="2011045"/>
+          <a:off x="6153578" y="2894044"/>
+          <a:ext cx="805504" cy="1630693"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1343,7 +1369,9 @@
   </sheetPr>
   <dimension ref="A5:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1365,434 +1393,444 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1">
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="13">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="12.5">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="3" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="12.5">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="12.5">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:12" ht="13">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="16" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="12.5">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="17" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="12.5">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="12.5">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="14" t="s">
+      <c r="D19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="12.5">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="13">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="J21" s="14" t="s">
+      <c r="E21" s="4"/>
+      <c r="J21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="12.5">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="J22" s="14" t="s">
+      <c r="E22" s="5"/>
+      <c r="J22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="12.5">
-      <c r="B23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="J23" s="14" t="s">
+      <c r="B23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="J23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="12.5">
-      <c r="E24" s="9"/>
-      <c r="J24" s="14" t="s">
+      <c r="E24" s="7"/>
+      <c r="J24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" ht="13">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="13">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="L26" s="16" t="s">
+      <c r="J26" s="11"/>
+      <c r="L26" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="12.5">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="L27" s="17" t="s">
+      <c r="J27" s="12"/>
+      <c r="L27" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="12.5">
-      <c r="B28" s="4"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="12.5">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="13">
-      <c r="D30" s="4"/>
-      <c r="F30" s="3" t="s">
+      <c r="D30" s="3"/>
+      <c r="F30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="10" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="13">
-      <c r="F31" s="4"/>
-      <c r="H31" s="11" t="s">
+      <c r="F31" s="3"/>
+      <c r="H31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="10" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="12.5">
-      <c r="H32" s="12"/>
-      <c r="J32" s="2" t="s">
+      <c r="H32" s="9"/>
+      <c r="J32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="10" t="s">
+      <c r="K32" s="5"/>
+      <c r="L32" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="6:14" ht="12.5">
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="6:14" ht="13">
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="6:14" ht="12.5">
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="6:14" ht="12.5">
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="6:14" ht="12.5">
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="6:14" ht="12.5">
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="6:14" ht="12.5">
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="6:14" ht="12.5">
-      <c r="F40" s="4"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="6:14" ht="13">
-      <c r="N41" s="20"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="6:14" ht="12.5"/>
     <row r="43" spans="6:14" ht="12.5"/>
     <row r="46" spans="6:14" ht="12.5"/>
     <row r="47" spans="6:14" ht="12.5"/>
     <row r="48" spans="6:14" ht="12.5"/>
-    <row r="49" spans="1:1" ht="409.5">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:7" ht="200" customHeight="1">
+      <c r="A49" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="12.5"/>
-    <row r="51" spans="1:1" ht="12.5"/>
-    <row r="52" spans="1:1" ht="12.5"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="12.5"/>
+    <row r="51" spans="1:7" ht="12.5"/>
+    <row r="52" spans="1:7" ht="12.5"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A49:G49"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>